--- a/Project/KMC/KMC_CO.xlsx
+++ b/Project/KMC/KMC_CO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lotburgstra/Desktop/TCC_SM_/Project/KMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30ADC42-75B5-104F-976D-89EB00A7804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C71EF61-C617-C54E-9A5F-DEE9021D3F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="1260" windowWidth="12360" windowHeight="18400" xr2:uid="{4DA85321-274B-D745-8FC9-F37C865B095F}"/>
+    <workbookView xWindow="14900" yWindow="720" windowWidth="14500" windowHeight="18400" xr2:uid="{4DA85321-274B-D745-8FC9-F37C865B095F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +79,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,6 +150,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20901B4-3761-504C-B474-8A6A318FC157}">
-  <dimension ref="A2:D26"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,317 +543,331 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>7.7429999999999999E-2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5">
-        <f>B6/($A$3*$B$3)</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/2</f>
-        <v>2E-3</v>
+      <c r="A6" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>0.59950000000000003</v>
+        <v>7.7429999999999999E-2</v>
       </c>
       <c r="B7" s="5">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5">
         <f>B7/($A$3*$B$3)</f>
-        <v>2.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:D14" si="0">C7/2</f>
-        <v>1.4E-2</v>
+        <f>C7/2</f>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="B8" s="5">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5">
+        <f>B8/($A$3*$B$3)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" ref="D8:D15" si="0">C8/2</f>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>4.6420000000000003</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="5">
         <v>304</v>
       </c>
-      <c r="C8" s="5">
-        <f t="shared" ref="C8:C14" si="1">B8/($A$3*$B$3)</f>
+      <c r="C9" s="5">
+        <f t="shared" ref="C9:C15" si="1">B9/($A$3*$B$3)</f>
         <v>0.152</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>35.94</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="5">
         <v>1510</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C10" s="5">
         <f t="shared" si="1"/>
         <v>0.755</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>0.3775</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>278.3</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5">
         <v>3214</v>
       </c>
-      <c r="C10" s="5">
-        <f>B10/($A$3*$B$3)</f>
+      <c r="C11" s="5">
+        <f>B11/($A$3*$B$3)</f>
         <v>1.607</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>0.80349999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>2154</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5">
         <v>3806</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <f t="shared" si="1"/>
         <v>1.903</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>0.95150000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>16680</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="5">
         <v>3904</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="5">
         <f t="shared" si="1"/>
         <v>1.952</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>129200</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B14" s="5">
         <v>3954</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C14" s="5">
         <f t="shared" si="1"/>
         <v>1.9770000000000001</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>0.98850000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>1000000</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="5">
         <v>3960</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C15" s="5">
         <f t="shared" si="1"/>
         <v>1.98</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>7743</v>
+        <v>1000</v>
       </c>
       <c r="B18" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C18" s="5">
-        <f>B18/($A$3*$B$3)</f>
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="5">
-        <f>C18/2</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>59950</v>
+        <v>7743</v>
       </c>
       <c r="B19" s="5">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5">
         <f>B19/($A$3*$B$3)</f>
-        <v>2.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" ref="D19:D26" si="2">C19/2</f>
-        <v>1.4E-2</v>
+        <f>C19/2</f>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
+        <v>59950</v>
+      </c>
+      <c r="B20" s="5">
+        <v>56</v>
+      </c>
+      <c r="C20" s="5">
+        <f>B20/($A$3*$B$3)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:D27" si="2">C20/2</f>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>464200</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B21" s="5">
         <v>304</v>
       </c>
-      <c r="C20" s="5">
-        <f t="shared" ref="C20:C26" si="3">B20/($A$3*$B$3)</f>
+      <c r="C21" s="5">
+        <f t="shared" ref="C21:C27" si="3">B21/($A$3*$B$3)</f>
         <v>0.152</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="5">
         <f t="shared" si="2"/>
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>3594000</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B22" s="5">
         <v>1510</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C22" s="5">
         <f t="shared" si="3"/>
         <v>0.755</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D22" s="5">
         <f t="shared" si="2"/>
         <v>0.3775</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
         <v>27830000</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B23" s="5">
         <v>3214</v>
       </c>
-      <c r="C22" s="5">
-        <f>B22/($A$3*$B$3)</f>
+      <c r="C23" s="5">
+        <f>B23/($A$3*$B$3)</f>
         <v>1.607</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <f t="shared" si="2"/>
         <v>0.80349999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
         <v>215400000</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B24" s="5">
         <v>3806</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="5">
         <f t="shared" si="3"/>
         <v>1.903</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="5">
         <f t="shared" si="2"/>
         <v>0.95150000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
         <v>1668000000</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B25" s="5">
         <v>3904</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="5">
         <f t="shared" si="3"/>
         <v>1.952</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="5">
         <f t="shared" si="2"/>
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
         <v>12920000000</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B26" s="5">
         <v>3954</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C26" s="5">
         <f t="shared" si="3"/>
         <v>1.9770000000000001</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D26" s="5">
         <f t="shared" si="2"/>
         <v>0.98850000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
         <v>100000000000</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B27" s="5">
         <v>3960</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C27" s="5">
         <f t="shared" si="3"/>
         <v>1.98</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <f t="shared" si="2"/>
         <v>0.99</v>
       </c>

--- a/Project/KMC/KMC_CO.xlsx
+++ b/Project/KMC/KMC_CO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lotburgstra/Desktop/TCC_SM_/Project/KMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C71EF61-C617-C54E-9A5F-DEE9021D3F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F388493C-1C5F-A242-ABA4-ED568B433212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14900" yWindow="720" windowWidth="14500" windowHeight="18400" xr2:uid="{4DA85321-274B-D745-8FC9-F37C865B095F}"/>
   </bookViews>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20901B4-3761-504C-B474-8A6A318FC157}">
-  <dimension ref="A2:D27"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,6 +872,24 @@
         <v>0.99</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
+        <v>2777</v>
+      </c>
+      <c r="C31" s="5">
+        <f>B31/(100*500)</f>
+        <v>5.5539999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="5">
+        <v>14957</v>
+      </c>
+      <c r="C32" s="5">
+        <f>B32/(100*500)</f>
+        <v>0.29914000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
